--- a/03. SourceCode/BKI_QLTTQuocAnh/Template/IMPORT_CONG_TAC.xlsx
+++ b/03. SourceCode/BKI_QLTTQuocAnh/Template/IMPORT_CONG_TAC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuyen\Desktop\01. He sinh thai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\_dvmd\trunk\03. SourceCode\BKI_QLTTQuocAnh\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NHAP_CONG_TAC" sheetId="5" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="MA_DON_VI_CHUC_VU" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MA_DON_VI_CHUC_VU!$A$1:$D$1</definedName>
     <definedName name="A_01">#REF!</definedName>
     <definedName name="A_02">#REF!</definedName>
     <definedName name="A_03">#REF!</definedName>
@@ -127,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="181">
   <si>
     <t>NGAY_KET_THUC</t>
   </si>
@@ -240,12 +241,6 @@
     <t>Đội trưởng Đội phục vụ hành khách đi nội địa</t>
   </si>
   <si>
-    <t>DT</t>
-  </si>
-  <si>
-    <t>Đội trưởng</t>
-  </si>
-  <si>
     <t>DP DPV HKQT</t>
   </si>
   <si>
@@ -264,12 +259,6 @@
     <t>Đội phó Đội phục vụ hành khách đến</t>
   </si>
   <si>
-    <t>DP</t>
-  </si>
-  <si>
-    <t>Đội phó</t>
-  </si>
-  <si>
     <t>TT TL VH TTB</t>
   </si>
   <si>
@@ -375,9 +364,6 @@
     <t>Nhân viên thủ quỹ kiêm thủ kho ấn chỉ</t>
   </si>
   <si>
-    <t>NV THONG KE</t>
-  </si>
-  <si>
     <t>Nhân viên thống kê</t>
   </si>
   <si>
@@ -387,9 +373,6 @@
     <t>Nhân viên điều hành</t>
   </si>
   <si>
-    <t>NV TL CX</t>
-  </si>
-  <si>
     <t>Nhân viên tài liệu chất xếp</t>
   </si>
   <si>
@@ -423,12 +406,6 @@
     <t>Nhân viên ULD</t>
   </si>
   <si>
-    <t>NV PVHK</t>
-  </si>
-  <si>
-    <t>Nhân viên Phục vụ hành khách</t>
-  </si>
-  <si>
     <t>NV LX KDTB</t>
   </si>
   <si>
@@ -468,30 +445,6 @@
     <t>Kỹ sư công nghệ thông tin</t>
   </si>
   <si>
-    <t>LT NV PVHK</t>
-  </si>
-  <si>
-    <t>Lâm thời NV PVHK</t>
-  </si>
-  <si>
-    <t>LTNVTK</t>
-  </si>
-  <si>
-    <t>Lâm thời nhân viên thống kê</t>
-  </si>
-  <si>
-    <t>LTNV PTHCHC</t>
-  </si>
-  <si>
-    <t>Lâm thời nhân viên P.TCHC</t>
-  </si>
-  <si>
-    <t>LTNV DT</t>
-  </si>
-  <si>
-    <t>Lâm thời nhân viên đào tạo</t>
-  </si>
-  <si>
     <t>HV</t>
   </si>
   <si>
@@ -594,9 +547,6 @@
     <t>Tổ Hướng dẫn chất xếp - ULD</t>
   </si>
   <si>
-    <t>Nhóm học việc</t>
-  </si>
-  <si>
     <t>D08</t>
   </si>
   <si>
@@ -609,9 +559,6 @@
     <t>D09</t>
   </si>
   <si>
-    <t>D10</t>
-  </si>
-  <si>
     <t>20160401</t>
   </si>
   <si>
@@ -655,6 +602,75 @@
   </si>
   <si>
     <t>LOAI_CONG_TAC</t>
+  </si>
+  <si>
+    <t>NV TK PVHK</t>
+  </si>
+  <si>
+    <t>NV PVHK QT</t>
+  </si>
+  <si>
+    <t>Nhân viên phục vụ hành khách</t>
+  </si>
+  <si>
+    <t>NV PVHK ND</t>
+  </si>
+  <si>
+    <t>NV PVHK D</t>
+  </si>
+  <si>
+    <t>NV TK PVKTSD</t>
+  </si>
+  <si>
+    <t>DT KDTB</t>
+  </si>
+  <si>
+    <t>Đội trưởng kéo đẩy tàu bay</t>
+  </si>
+  <si>
+    <t>DP KDTB</t>
+  </si>
+  <si>
+    <t>Đội phó kéo đẩy tàu bay</t>
+  </si>
+  <si>
+    <t>DT PVHLHH</t>
+  </si>
+  <si>
+    <t>Đội trưởng Phục vụ hành lý hàng hóa</t>
+  </si>
+  <si>
+    <t>DP PVHLHH</t>
+  </si>
+  <si>
+    <t>Đội phó Phục vụ hành lý hàng hóa</t>
+  </si>
+  <si>
+    <t>DT PVTB</t>
+  </si>
+  <si>
+    <t>Đội trưởng Phục vụ tàu bay</t>
+  </si>
+  <si>
+    <t>DP PVTB</t>
+  </si>
+  <si>
+    <t>Đội phó Phục vụ tàu bay</t>
+  </si>
+  <si>
+    <t>NV TK DHTL HDCX</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>NV TL CX DB</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>NV TL CX ULD</t>
   </si>
 </sst>
 </file>
@@ -664,7 +680,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,6 +733,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -764,7 +788,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -795,6 +819,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,7 +1111,7 @@
   </sheetPr>
   <dimension ref="A1:S1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1101,32 +1127,31 @@
     <col min="5" max="5" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="19" width="0" style="3" hidden="1"/>
+    <col min="8" max="19" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="3" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1134,17 +1159,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D2" s="5">
         <v>42278</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>4</v>
@@ -1155,17 +1180,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D3" s="5">
         <v>42278</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>4</v>
@@ -5142,7 +5167,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -5150,26 +5175,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5180,634 +5205,950 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C40" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B51" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C54" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="59" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C62" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="2" t="s">
+      <c r="C65" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D44" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D45" s="2" t="s">
+    </row>
+    <row r="66" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D46" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D47" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D48" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D49" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D50" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D51" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D52" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D53" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D54" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D55" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D56" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D57" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D58" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D59" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D60" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D61" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>121</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/03. SourceCode/BKI_QLTTQuocAnh/Template/IMPORT_CONG_TAC.xlsx
+++ b/03. SourceCode/BKI_QLTTQuocAnh/Template/IMPORT_CONG_TAC.xlsx
@@ -17,7 +17,7 @@
     <sheet name="MA_DON_VI_CHUC_VU" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MA_DON_VI_CHUC_VU!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MA_DON_VI_CHUC_VU!$A$1:$D$66</definedName>
     <definedName name="A_01">#REF!</definedName>
     <definedName name="A_02">#REF!</definedName>
     <definedName name="A_03">#REF!</definedName>
@@ -5211,7 +5211,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5237,7 +5237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>110</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>110</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>110</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>110</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>110</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>110</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>110</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>110</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>110</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>110</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>112</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>112</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>112</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>112</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>114</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>114</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>114</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>114</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>114</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>116</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>116</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>120</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>120</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>120</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>132</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>141</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>132</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>141</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>132</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>141</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>134</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>134</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>134</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>118</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>118</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>118</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>139</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>126</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>126</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>126</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>126</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>126</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>128</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>128</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>130</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>130</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>130</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>124</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>124</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>124</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>142</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>142</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>142</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>142</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>122</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>122</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>122</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>122</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>177</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>177</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>177</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>179</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>179</v>
       </c>
@@ -6148,7 +6148,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D66"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>